--- a/rsc/Control de errores 1.0.xlsx
+++ b/rsc/Control de errores 1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Test</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Critico</t>
+  </si>
+  <si>
+    <t>Se procedio al reinicio de la variable que almacena el carrito y quedo funcionando como corresponde.</t>
+  </si>
+  <si>
+    <t>14 - Prueba Unitaria metodo getUser</t>
   </si>
 </sst>
 </file>
@@ -575,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -938,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -946,12 +952,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
@@ -977,12 +985,24 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>

--- a/rsc/Control de errores 1.0.xlsx
+++ b/rsc/Control de errores 1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Test</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>14 - Prueba Unitaria metodo getUser</t>
+  </si>
+  <si>
+    <t>Se procedio a hacer "scrollable" la pantalla que muestra los menu</t>
+  </si>
+  <si>
+    <t>15 - Pruebas unitarias metodo registerUser</t>
+  </si>
+  <si>
+    <t>16 - Pruebas unitarias metodo validateUser</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -812,13 +821,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -932,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -1005,17 +1014,29 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1027,6 +1048,86 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C193">

--- a/rsc/Control de errores 1.0.xlsx
+++ b/rsc/Control de errores 1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Test</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>16 - Pruebas unitarias metodo validateUser</t>
+  </si>
+  <si>
+    <t>17 - Cuando no hay restaurantes verificar que no hay botones de confirmar ni carrito.</t>
+  </si>
+  <si>
+    <t>Medio - Aparecia un boton en medio de un mensaje que no habian menu disponibles</t>
+  </si>
+  <si>
+    <t>Se procedio a desabilitar el boton cuando esto ocurre</t>
+  </si>
+  <si>
+    <t>18 - Cuando aun no agrego nada al carrito el boton debe estar deshabilitado.</t>
   </si>
 </sst>
 </file>
@@ -590,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -981,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1023,9 +1035,15 @@
       <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
@@ -1037,25 +1055,55 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
